--- a/data/LoginCredential.xlsx
+++ b/data/LoginCredential.xlsx
@@ -5,29 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fleek\eclipse-workspace\Testing.Treatians\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fleek\git\TT1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24FE6BF-8242-4B3A-BD39-4D9036CCA635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1905B812-4734-48AE-8820-3C179A2F021B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{A9F5F2C5-B510-4599-A7A9-55E4280CF510}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9F5F2C5-B510-4599-A7A9-55E4280CF510}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -45,22 +36,22 @@
     <t>gayaas@gmail.com</t>
   </si>
   <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>gayaas@</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>Exp_Result</t>
+  </si>
+  <si>
+    <t>GAYAAS@gmail.com</t>
+  </si>
+  <si>
     <t>Gayaas@gmail.com</t>
-  </si>
-  <si>
-    <t>invalid</t>
-  </si>
-  <si>
-    <t>gayaas@</t>
-  </si>
-  <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>Exp_Result</t>
-  </si>
-  <si>
-    <t>GAYAAS@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -487,7 +478,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -517,29 +508,29 @@
         <v>12345678</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
         <v>12345678</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5">
         <v>12345678</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -550,7 +541,7 @@
         <v>87654321</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -561,18 +552,18 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="6">
         <v>12345678</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/LoginCredential.xlsx
+++ b/data/LoginCredential.xlsx
@@ -5,20 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fleek\git\TT1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fleek\eclipse-workspace\Testing.Treatians\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1905B812-4734-48AE-8820-3C179A2F021B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24FE6BF-8242-4B3A-BD39-4D9036CCA635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9F5F2C5-B510-4599-A7A9-55E4280CF510}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{A9F5F2C5-B510-4599-A7A9-55E4280CF510}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,6 +45,9 @@
     <t>gayaas@gmail.com</t>
   </si>
   <si>
+    <t>Gayaas@gmail.com</t>
+  </si>
+  <si>
     <t>invalid</t>
   </si>
   <si>
@@ -49,9 +61,6 @@
   </si>
   <si>
     <t>GAYAAS@gmail.com</t>
-  </si>
-  <si>
-    <t>Gayaas@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -478,7 +487,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -508,29 +517,29 @@
         <v>12345678</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5">
         <v>12345678</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5">
         <v>12345678</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -541,7 +550,7 @@
         <v>87654321</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -552,18 +561,18 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6">
         <v>12345678</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
